--- a/Polysomnography Studies.xlsx
+++ b/Polysomnography Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phuongvu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stitc\Desktop\UW\Info201\Final Project\info201agsleepdeprivation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A1EB61-F2BD-634B-BCD6-1272DACAA336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6D1D7-9986-45CB-9DF3-30F71947C6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{E777EE4F-A0A1-5046-BBE6-502DCEAC3D53}"/>
+    <workbookView xWindow="14004" yWindow="1980" windowWidth="12192" windowHeight="9924" xr2:uid="{E777EE4F-A0A1-5046-BBE6-502DCEAC3D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -34,6 +34,84 @@
   </si>
   <si>
     <t>Total Sleep Time (min)</t>
+  </si>
+  <si>
+    <t>19–36</t>
+  </si>
+  <si>
+    <t>18–22</t>
+  </si>
+  <si>
+    <t>19–21</t>
+  </si>
+  <si>
+    <t>22-24</t>
+  </si>
+  <si>
+    <t>25-27</t>
+  </si>
+  <si>
+    <t>28-30</t>
+  </si>
+  <si>
+    <t>19-22</t>
+  </si>
+  <si>
+    <t>23-60</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>18-32</t>
+  </si>
+  <si>
+    <t>19-23</t>
+  </si>
+  <si>
+    <t>23-29</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>23-39</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>20-27</t>
+  </si>
+  <si>
+    <t>18-30</t>
+  </si>
+  <si>
+    <t>19-28</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>19-26</t>
+  </si>
+  <si>
+    <t>20-39</t>
+  </si>
+  <si>
+    <t>20-28</t>
+  </si>
+  <si>
+    <t>20-31</t>
   </si>
 </sst>
 </file>
@@ -385,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22585EC-1F74-0541-AC1E-01A28E7208FC}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,220 +482,763 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1966</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2">
         <v>393.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1975</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1977</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1977</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1977</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6">
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1977</v>
       </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7">
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1978</v>
       </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
       <c r="C8">
         <v>439.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1979</v>
       </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9">
         <v>407.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1981</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10">
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1982</v>
       </c>
+      <c r="B11">
+        <v>23.3</v>
+      </c>
       <c r="C11">
         <v>428.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1982</v>
       </c>
+      <c r="B12">
+        <v>22.3</v>
+      </c>
       <c r="C12">
         <v>401.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1982</v>
       </c>
+      <c r="B13">
+        <v>31.8</v>
+      </c>
       <c r="C13">
         <v>420.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1983</v>
       </c>
+      <c r="B14">
+        <v>20.67</v>
+      </c>
       <c r="C14">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1983</v>
       </c>
+      <c r="B15">
+        <v>20.67</v>
+      </c>
       <c r="C15">
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1983</v>
       </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
       <c r="C16">
         <v>436.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1983</v>
       </c>
+      <c r="B17">
+        <v>25.4</v>
+      </c>
       <c r="C17">
         <v>464.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1984</v>
       </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
       <c r="C18">
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1984</v>
       </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
       <c r="C19">
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1985</v>
       </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
       <c r="C20">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1985</v>
       </c>
+      <c r="B21">
+        <v>24.8</v>
+      </c>
       <c r="C21">
         <v>396.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1987</v>
       </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
       <c r="C22">
         <v>501.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1988</v>
       </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
       <c r="C23">
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1988</v>
       </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24">
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1989</v>
       </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
       <c r="C25">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1989</v>
       </c>
+      <c r="B26">
+        <v>30.1</v>
+      </c>
       <c r="C26">
         <v>384.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1990</v>
       </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
       <c r="C27">
         <v>385.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1990</v>
       </c>
+      <c r="B28">
+        <v>23.9</v>
+      </c>
       <c r="C28">
         <v>429.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1990</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1991</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>413.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1991</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>417.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1991</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1992</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1992</v>
+      </c>
+      <c r="B34">
+        <v>24.5</v>
+      </c>
+      <c r="C34">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1992</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1992</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>426.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1992</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>347.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1992</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1992</v>
+      </c>
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>357.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1993</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>431.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1994</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>441.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1995</v>
+      </c>
+      <c r="B42">
+        <v>25.6</v>
+      </c>
+      <c r="C42">
+        <v>419.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1996</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>447.83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1996</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>354.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1997</v>
+      </c>
+      <c r="B45">
+        <v>29.99</v>
+      </c>
+      <c r="C45">
+        <v>457.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1997</v>
+      </c>
+      <c r="B46">
+        <v>34.79</v>
+      </c>
+      <c r="C46">
+        <v>423.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1999</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>428.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>433.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>451.53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2003</v>
+      </c>
+      <c r="B51">
+        <v>24.6</v>
+      </c>
+      <c r="C51">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C52">
+        <v>426.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2007</v>
+      </c>
+      <c r="B53">
+        <v>20.14</v>
+      </c>
+      <c r="C53">
+        <v>483.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2008</v>
+      </c>
+      <c r="B54">
+        <v>24.9</v>
+      </c>
+      <c r="C54">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2008</v>
+      </c>
+      <c r="B55">
+        <v>23.3</v>
+      </c>
+      <c r="C55">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2008</v>
+      </c>
+      <c r="B56">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2008</v>
+      </c>
+      <c r="B57">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2009</v>
+      </c>
+      <c r="B58">
+        <v>23.8</v>
+      </c>
+      <c r="C58">
+        <v>441.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2009</v>
+      </c>
+      <c r="B59">
+        <v>24.6</v>
+      </c>
+      <c r="C59">
+        <v>449.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2009</v>
+      </c>
+      <c r="B60">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C60">
+        <v>386.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2009</v>
+      </c>
+      <c r="B61">
+        <v>29.8</v>
+      </c>
+      <c r="C61">
+        <v>395.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62">
+        <v>25.3</v>
+      </c>
+      <c r="C62">
+        <v>456.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2009</v>
+      </c>
+      <c r="B63">
+        <v>24.3</v>
+      </c>
+      <c r="C63">
+        <v>443.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2011</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2011</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>446.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2011</v>
+      </c>
+      <c r="B66">
+        <v>22.6</v>
+      </c>
+      <c r="C66">
+        <v>373.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2012</v>
+      </c>
+      <c r="B67">
+        <v>25.2</v>
+      </c>
+      <c r="C67">
+        <v>390.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2012</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>410.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2012</v>
+      </c>
+      <c r="B69">
+        <v>30.39</v>
+      </c>
+      <c r="C69">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2012</v>
+      </c>
+      <c r="B70">
+        <v>21.1</v>
+      </c>
+      <c r="C70">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/Polysomnography Studies.xlsx
+++ b/Polysomnography Studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stitc\Desktop\UW\Info201\Final Project\info201agsleepdeprivation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6D1D7-9986-45CB-9DF3-30F71947C6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1362D-4F06-4E32-B2DD-D106087FF8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14004" yWindow="1980" windowWidth="12192" windowHeight="9924" xr2:uid="{E777EE4F-A0A1-5046-BBE6-502DCEAC3D53}"/>
   </bookViews>
